--- a/mcu_box_office.xlsx
+++ b/mcu_box_office.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27316"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="628" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C705F29-31F8-40BD-B89E-4D150E1EABDB}"/>
+  <xr:revisionPtr revIDLastSave="629" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DDD1D6A-F343-42A7-9A9E-225705D162D2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>Tomatometer</t>
   </si>
   <si>
-    <t>Rotton Tomato Audience Score</t>
+    <t>Rotten Tomato Audience Score</t>
   </si>
   <si>
     <t>Run Time In Minutes</t>
@@ -449,7 +449,7 @@
     <tableColumn id="9" xr3:uid="{16A538B0-E6B4-477C-B393-EAFDD260DDED}" name="IMDb Score"/>
     <tableColumn id="10" xr3:uid="{57336FD3-4439-4A67-BF1D-9811E138815E}" name="Meta Score"/>
     <tableColumn id="11" xr3:uid="{106B909C-091C-46F1-92CC-7796D1F21965}" name="Tomatometer"/>
-    <tableColumn id="12" xr3:uid="{ECF61D3A-62A5-473E-ADC0-253CFACA8C89}" name="Rotton Tomato Audience Score"/>
+    <tableColumn id="12" xr3:uid="{ECF61D3A-62A5-473E-ADC0-253CFACA8C89}" name="Rotten Tomato Audience Score"/>
     <tableColumn id="13" xr3:uid="{F80CD62A-BBDD-45B0-AB71-1B3A0ECCD286}" name="Run Time In Minutes"/>
     <tableColumn id="14" xr3:uid="{C0A373D4-13F9-498B-95E4-4B7EB604F05B}" name="Phase"/>
     <tableColumn id="15" xr3:uid="{E7255CFD-5B59-4395-8E7C-98AC2F88C420}" name="Director"/>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/mcu_box_office.xlsx
+++ b/mcu_box_office.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="629" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DDD1D6A-F343-42A7-9A9E-225705D162D2}"/>
+  <xr:revisionPtr revIDLastSave="630" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1C71BBA-A0D3-43B8-9088-220C0A251BDE}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,9 +256,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -321,17 +318,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -339,7 +335,7 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -357,7 +353,7 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -375,10 +371,10 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -396,7 +392,7 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -414,7 +410,7 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -777,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -853,23 +849,23 @@
       <c r="B2" s="1">
         <v>39570</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>318604126</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>467231126</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>F2-C2</f>
         <v>266567421</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>585171547</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>102118668</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>186000000</v>
       </c>
       <c r="I2">
@@ -890,7 +886,7 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -901,23 +897,23 @@
       <c r="B3" s="1">
         <v>39612</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>134806913</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>197704288</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E34" si="0">F3-C3</f>
         <v>130766946</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>265573859</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>55414050</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>137500000</v>
       </c>
       <c r="I3">
@@ -938,7 +934,7 @@
       <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -949,23 +945,23 @@
       <c r="B4" s="1">
         <v>40305</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>312433331</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>416973763</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>308723058</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>621156389</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>128122480</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>170000000</v>
       </c>
       <c r="I4">
@@ -986,7 +982,7 @@
       <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -997,23 +993,23 @@
       <c r="B5" s="1">
         <v>40669</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>181030624</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>240384926</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>268295994</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>449326618</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>65723338</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>150000000</v>
       </c>
       <c r="I5">
@@ -1034,7 +1030,7 @@
       <c r="N5" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1045,23 +1041,23 @@
       <c r="B6" s="1">
         <v>40746</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>176654505</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>234574020</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>193915271</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>370569776</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>65058524</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>140000000</v>
       </c>
       <c r="I6">
@@ -1093,23 +1089,23 @@
       <c r="B7" s="1">
         <v>41033</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>623357910</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>824617936</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>891742301</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1515100211</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>207438708</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>225000000</v>
       </c>
       <c r="I7">
@@ -1141,23 +1137,23 @@
       <c r="B8" s="1">
         <v>41397</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>408992272</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>529727993</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>806400000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1215392272</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>174144585</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>200000000</v>
       </c>
       <c r="I8">
@@ -1189,23 +1185,23 @@
       <c r="B9" s="1">
         <v>41586</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>206362140</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>267262372</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>438240376</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>644602516</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>85737841</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>150000000</v>
       </c>
       <c r="I9">
@@ -1237,23 +1233,23 @@
       <c r="B10" s="1">
         <v>41733</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>259746958</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>334777900</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>454654931</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>714401889</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>95023721</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>170000000</v>
       </c>
       <c r="I10">
@@ -1285,23 +1281,23 @@
       <c r="B11" s="1">
         <v>41852</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>333714112</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>430014621</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>437168283</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>770882395</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>94320883</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>170000000</v>
       </c>
       <c r="I11">
@@ -1333,23 +1329,23 @@
       <c r="B12" s="1">
         <v>42125</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>459005868</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>573348960</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>936311111</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>1395316979</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>191271109</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>365000000</v>
       </c>
       <c r="I12">
@@ -1381,23 +1377,23 @@
       <c r="B13" s="1">
         <v>42202</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>180202163</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>225092376</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>338656286</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>518858449</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>57225526</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>130000000</v>
       </c>
       <c r="I13">
@@ -1429,23 +1425,23 @@
       <c r="B14" s="1">
         <v>42496</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>408084349</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>496777822</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>743815237</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>1151899586</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>179139142</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>250000000</v>
       </c>
       <c r="I14">
@@ -1477,23 +1473,23 @@
       <c r="B15" s="1">
         <v>42678</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>232641920</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>283094491</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>443701254</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>676343174</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>85058311</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>165000000</v>
       </c>
       <c r="I15">
@@ -1525,23 +1521,23 @@
       <c r="B16" s="1">
         <v>42860</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>389813101</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>457606675</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>479274862</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>869087963</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>146510104</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>200000000</v>
       </c>
       <c r="I16">
@@ -1573,23 +1569,23 @@
       <c r="B17" s="1">
         <v>42923</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>334201140</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>392323076</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>544070151</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>878271291</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>117027503</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>175000000</v>
       </c>
       <c r="I17">
@@ -1621,23 +1617,23 @@
       <c r="B18" s="1">
         <v>43042</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>315058289</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>369781873</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>535424489</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>850482778</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>122744989</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>180000000</v>
       </c>
       <c r="I18">
@@ -1669,23 +1665,23 @@
       <c r="B19" s="1">
         <v>43147</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>700059566</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>809179714</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>636434754</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>1336494320</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>202003951</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>200000000</v>
       </c>
       <c r="I19">
@@ -1717,23 +1713,23 @@
       <c r="B20" s="1">
         <v>43217</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>678815482</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>784624259</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>1369544272</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>2048359754</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>257698183</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>300000000</v>
       </c>
       <c r="I20">
@@ -1765,23 +1761,23 @@
       <c r="B21" s="1">
         <v>43287</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>216648740</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>250418353</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>406495920</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>623144660</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>75812205</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>130000000</v>
       </c>
       <c r="I21">
@@ -1813,23 +1809,23 @@
       <c r="B22" s="1">
         <v>43532</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>426829839</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>490667926</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>702746255</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>1129576094</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>153433423</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>175000000</v>
       </c>
       <c r="I22">
@@ -1861,23 +1857,23 @@
       <c r="B23" s="1">
         <v>43581</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>858373000</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>986754117</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>1930539285</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>2788912285</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>357115007</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>400000000</v>
       </c>
       <c r="I23">
@@ -1909,23 +1905,23 @@
       <c r="B24" s="1">
         <v>43648</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>390532085</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>448941359</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>741575437</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>1132107522</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>92579212</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>160000000</v>
       </c>
       <c r="I24">
@@ -1957,23 +1953,23 @@
       <c r="B25" s="1">
         <v>44386</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>183651655</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>185947301</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>196099476</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>379751131</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>80366312</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>200000000</v>
       </c>
       <c r="I25">
@@ -2005,23 +2001,23 @@
       <c r="B26" s="1">
         <v>44442</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>224543292</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>227350082</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>207681342</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>432224634</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>75388688</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>150000000</v>
       </c>
       <c r="I26">
@@ -2053,23 +2049,23 @@
       <c r="B27" s="1">
         <v>44505</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>164870264</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>166928942</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>236861495</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>401731759</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>71297219</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>200000000</v>
       </c>
       <c r="I27">
@@ -2101,23 +2097,23 @@
       <c r="B28" s="1">
         <v>44547</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>814115070</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>821277378</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>1093721184</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>1907836254</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>260138569</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>200000000</v>
       </c>
       <c r="I28">
@@ -2149,23 +2145,23 @@
       <c r="B29" s="1">
         <v>44687</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>411331607</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>411331607</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>540893379</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>952224986</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>187420998</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>200000000</v>
       </c>
       <c r="I29">
@@ -2197,23 +2193,23 @@
       <c r="B30" s="1">
         <v>44750</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>343256830</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>343256830</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>417671251</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>760928081</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>144165107</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>250000000</v>
       </c>
       <c r="I30">
@@ -2245,23 +2241,23 @@
       <c r="B31" s="1">
         <v>44876</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>453829060</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>453829060</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <f t="shared" si="0"/>
         <v>400156486</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>853985546</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>181339761</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>250000000</v>
       </c>
       <c r="I31">
@@ -2293,23 +2289,23 @@
       <c r="B32" s="1">
         <v>44974</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>214506909</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>214506909</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>249128394</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>463635303</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>106109650</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>200000000</v>
       </c>
       <c r="I32">
@@ -2341,23 +2337,23 @@
       <c r="B33" s="1">
         <v>45051</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>358995815</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>358995815</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>486472929</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>845468744</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>118414021</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>250000000</v>
       </c>
       <c r="I33">
@@ -2389,23 +2385,23 @@
       <c r="B34" s="1">
         <v>45240</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>84500223</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>84500223</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>115206027</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>199706250</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>46110859</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>274800000</v>
       </c>
       <c r="I34">

--- a/mcu_box_office.xlsx
+++ b/mcu_box_office.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="630" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1C71BBA-A0D3-43B8-9088-220C0A251BDE}"/>
+  <xr:revisionPtr revIDLastSave="632" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E77FA958-1A06-449F-B8E0-7BC08B474127}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -313,21 +313,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -771,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -849,23 +859,23 @@
       <c r="B2" s="1">
         <v>39570</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>318604126</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>467231126</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <f>F2-C2</f>
         <v>266567421</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>585171547</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>102118668</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>186000000</v>
       </c>
       <c r="I2">
@@ -897,23 +907,23 @@
       <c r="B3" s="1">
         <v>39612</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>134806913</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>197704288</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <f t="shared" ref="E3:E34" si="0">F3-C3</f>
         <v>130766946</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>265573859</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>55414050</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>137500000</v>
       </c>
       <c r="I3">
@@ -945,23 +955,23 @@
       <c r="B4" s="1">
         <v>40305</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>312433331</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>416973763</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>308723058</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>621156389</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>128122480</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>170000000</v>
       </c>
       <c r="I4">
@@ -993,23 +1003,23 @@
       <c r="B5" s="1">
         <v>40669</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>181030624</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>240384926</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>268295994</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>449326618</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>65723338</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>150000000</v>
       </c>
       <c r="I5">
@@ -1041,23 +1051,23 @@
       <c r="B6" s="1">
         <v>40746</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>176654505</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>234574020</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>193915271</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>370569776</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>65058524</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>140000000</v>
       </c>
       <c r="I6">
@@ -1089,23 +1099,23 @@
       <c r="B7" s="1">
         <v>41033</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>623357910</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>824617936</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>891742301</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>1515100211</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>207438708</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <v>225000000</v>
       </c>
       <c r="I7">
@@ -1137,23 +1147,23 @@
       <c r="B8" s="1">
         <v>41397</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>408992272</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>529727993</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>806400000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>1215392272</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>174144585</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>200000000</v>
       </c>
       <c r="I8">
@@ -1185,23 +1195,23 @@
       <c r="B9" s="1">
         <v>41586</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>206362140</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>267262372</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>438240376</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>644602516</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>85737841</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <v>150000000</v>
       </c>
       <c r="I9">
@@ -1233,23 +1243,23 @@
       <c r="B10" s="1">
         <v>41733</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>259746958</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>334777900</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>454654931</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>714401889</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>95023721</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>170000000</v>
       </c>
       <c r="I10">
@@ -1281,23 +1291,23 @@
       <c r="B11" s="1">
         <v>41852</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>333714112</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>430014621</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>437168283</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>770882395</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>94320883</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>170000000</v>
       </c>
       <c r="I11">
@@ -1329,23 +1339,23 @@
       <c r="B12" s="1">
         <v>42125</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>459005868</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>573348960</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>936311111</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>1395316979</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <v>191271109</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>365000000</v>
       </c>
       <c r="I12">
@@ -1377,23 +1387,23 @@
       <c r="B13" s="1">
         <v>42202</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2">
         <v>180202163</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>225092376</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>338656286</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>518858449</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>57225526</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>130000000</v>
       </c>
       <c r="I13">
@@ -1425,23 +1435,23 @@
       <c r="B14" s="1">
         <v>42496</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>408084349</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>496777822</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>743815237</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>1151899586</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>179139142</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14">
         <v>250000000</v>
       </c>
       <c r="I14">
@@ -1473,23 +1483,23 @@
       <c r="B15" s="1">
         <v>42678</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>232641920</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>283094491</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>443701254</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>676343174</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>85058311</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15">
         <v>165000000</v>
       </c>
       <c r="I15">
@@ -1521,23 +1531,23 @@
       <c r="B16" s="1">
         <v>42860</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>389813101</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>457606675</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>479274862</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>869087963</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>146510104</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>200000000</v>
       </c>
       <c r="I16">
@@ -1569,23 +1579,23 @@
       <c r="B17" s="1">
         <v>42923</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>334201140</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>392323076</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>544070151</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="2">
         <v>878271291</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="2">
         <v>117027503</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
         <v>175000000</v>
       </c>
       <c r="I17">
@@ -1617,23 +1627,23 @@
       <c r="B18" s="1">
         <v>43042</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>315058289</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>369781873</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>535424489</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="2">
         <v>850482778</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>122744989</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>180000000</v>
       </c>
       <c r="I18">
@@ -1665,23 +1675,23 @@
       <c r="B19" s="1">
         <v>43147</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>700059566</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2">
         <v>809179714</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>636434754</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>1336494320</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <v>202003951</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19">
         <v>200000000</v>
       </c>
       <c r="I19">
@@ -1713,23 +1723,23 @@
       <c r="B20" s="1">
         <v>43217</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="2">
         <v>678815482</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2">
         <v>784624259</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>1369544272</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="2">
         <v>2048359754</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="2">
         <v>257698183</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20">
         <v>300000000</v>
       </c>
       <c r="I20">
@@ -1761,23 +1771,23 @@
       <c r="B21" s="1">
         <v>43287</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="2">
         <v>216648740</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2">
         <v>250418353</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>406495920</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="2">
         <v>623144660</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <v>75812205</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21">
         <v>130000000</v>
       </c>
       <c r="I21">
@@ -1809,23 +1819,23 @@
       <c r="B22" s="1">
         <v>43532</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="2">
         <v>426829839</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
         <v>490667926</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>702746255</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="2">
         <v>1129576094</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="2">
         <v>153433423</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22">
         <v>175000000</v>
       </c>
       <c r="I22">
@@ -1857,23 +1867,23 @@
       <c r="B23" s="1">
         <v>43581</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="2">
         <v>858373000</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
         <v>986754117</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>1930539285</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="2">
         <v>2788912285</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="2">
         <v>357115007</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23">
         <v>400000000</v>
       </c>
       <c r="I23">
@@ -1905,23 +1915,23 @@
       <c r="B24" s="1">
         <v>43648</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>390532085</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
         <v>448941359</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>741575437</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="2">
         <v>1132107522</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="2">
         <v>92579212</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24">
         <v>160000000</v>
       </c>
       <c r="I24">
@@ -1953,23 +1963,23 @@
       <c r="B25" s="1">
         <v>44386</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <v>183651655</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
         <v>185947301</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>196099476</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="2">
         <v>379751131</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="2">
         <v>80366312</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25">
         <v>200000000</v>
       </c>
       <c r="I25">
@@ -2001,23 +2011,23 @@
       <c r="B26" s="1">
         <v>44442</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="2">
         <v>224543292</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2">
         <v>227350082</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>207681342</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>432224634</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="2">
         <v>75388688</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26">
         <v>150000000</v>
       </c>
       <c r="I26">
@@ -2049,23 +2059,23 @@
       <c r="B27" s="1">
         <v>44505</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="2">
         <v>164870264</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="2">
         <v>166928942</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>236861495</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="2">
         <v>401731759</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="2">
         <v>71297219</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27">
         <v>200000000</v>
       </c>
       <c r="I27">
@@ -2097,23 +2107,23 @@
       <c r="B28" s="1">
         <v>44547</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
         <v>814115070</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2">
         <v>821277378</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>1093721184</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>1907836254</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="2">
         <v>260138569</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28">
         <v>200000000</v>
       </c>
       <c r="I28">
@@ -2145,23 +2155,23 @@
       <c r="B29" s="1">
         <v>44687</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="2">
         <v>411331607</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="2">
         <v>411331607</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>540893379</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="2">
         <v>952224986</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="2">
         <v>187420998</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29">
         <v>200000000</v>
       </c>
       <c r="I29">
@@ -2193,23 +2203,23 @@
       <c r="B30" s="1">
         <v>44750</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <v>343256830</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="2">
         <v>343256830</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>417671251</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="2">
         <v>760928081</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="2">
         <v>144165107</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30">
         <v>250000000</v>
       </c>
       <c r="I30">
@@ -2241,23 +2251,23 @@
       <c r="B31" s="1">
         <v>44876</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="2">
         <v>453829060</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2">
         <v>453829060</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>400156486</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="2">
         <v>853985546</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="2">
         <v>181339761</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31">
         <v>250000000</v>
       </c>
       <c r="I31">
@@ -2289,23 +2299,23 @@
       <c r="B32" s="1">
         <v>44974</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="2">
         <v>214506909</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="2">
         <v>214506909</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>249128394</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <v>463635303</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="2">
         <v>106109650</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32">
         <v>200000000</v>
       </c>
       <c r="I32">
@@ -2337,23 +2347,23 @@
       <c r="B33" s="1">
         <v>45051</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="2">
         <v>358995815</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="2">
         <v>358995815</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>486472929</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="2">
         <v>845468744</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="2">
         <v>118414021</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33">
         <v>250000000</v>
       </c>
       <c r="I33">
@@ -2385,23 +2395,23 @@
       <c r="B34" s="1">
         <v>45240</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="2">
         <v>84500223</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="2">
         <v>84500223</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>115206027</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <v>199706250</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="2">
         <v>46110859</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34">
         <v>274800000</v>
       </c>
       <c r="I34">
@@ -2425,6 +2435,9 @@
       <c r="O34" t="s">
         <v>72</v>
       </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
